--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cort-Sstr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cort-Sstr4.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.308433333333334</v>
+        <v>6.460753666666666</v>
       </c>
       <c r="N2">
-        <v>3.9253</v>
+        <v>19.382261</v>
       </c>
       <c r="O2">
-        <v>0.30344261612016</v>
+        <v>0.6826458421750546</v>
       </c>
       <c r="P2">
-        <v>0.30344261612016</v>
+        <v>0.6826458421750545</v>
       </c>
       <c r="Q2">
-        <v>0.1594526643111111</v>
+        <v>0.7873418991728888</v>
       </c>
       <c r="R2">
-        <v>1.4350739788</v>
+        <v>7.086077092556</v>
       </c>
       <c r="S2">
-        <v>0.30344261612016</v>
+        <v>0.6826458421750546</v>
       </c>
       <c r="T2">
-        <v>0.30344261612016</v>
+        <v>0.6826458421750545</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>7.368127</v>
       </c>
       <c r="O3">
-        <v>0.5695879888888966</v>
+        <v>0.2595064250330629</v>
       </c>
       <c r="P3">
-        <v>0.5695879888888966</v>
+        <v>0.2595064250330629</v>
       </c>
       <c r="Q3">
         <v>0.2993064176324444</v>
@@ -632,10 +632,10 @@
         <v>2.693757758692</v>
       </c>
       <c r="S3">
-        <v>0.5695879888888966</v>
+        <v>0.2595064250330629</v>
       </c>
       <c r="T3">
-        <v>0.5695879888888966</v>
+        <v>0.2595064250330629</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>1.642462</v>
       </c>
       <c r="O4">
-        <v>0.1269693949909434</v>
+        <v>0.05784773279188247</v>
       </c>
       <c r="P4">
-        <v>0.1269693949909434</v>
+        <v>0.05784773279188246</v>
       </c>
       <c r="Q4">
         <v>0.06671972637244444</v>
@@ -694,10 +694,10 @@
         <v>0.600477537352</v>
       </c>
       <c r="S4">
-        <v>0.1269693949909434</v>
+        <v>0.05784773279188247</v>
       </c>
       <c r="T4">
-        <v>0.1269693949909434</v>
+        <v>0.05784773279188246</v>
       </c>
     </row>
   </sheetData>
